--- a/01 Project Management/TechnischeRisiken.xlsx
+++ b/01 Project Management/TechnischeRisiken.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -94,9 +94,6 @@
     <t>PostgreSQL</t>
   </si>
   <si>
-    <t>R5</t>
-  </si>
-  <si>
     <t>R…</t>
   </si>
   <si>
@@ -122,12 +119,6 @@
   </si>
   <si>
     <t>Hilfe bei Stefan Keller suchen.</t>
-  </si>
-  <si>
-    <t>Apache / Tomcat</t>
-  </si>
-  <si>
-    <t>Konfiguration Web / Server Container stellt sich schwieriger dar als angenommen. Es wird viel Zeit beansprucht die Applikationen zu konfigurieren. Gewisse Erfahrung mit diesen Komponenten ist bereits vorhanden.</t>
   </si>
 </sst>
 </file>
@@ -529,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK15"/>
+  <dimension ref="A1:AMK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,8 +583,8 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="3">
-        <f>SUM(F8:F14)</f>
-        <v>32</v>
+        <f>SUM(F8:F13)</f>
+        <v>27.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -633,7 +624,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5">
         <v>30</v>
@@ -642,11 +633,11 @@
         <v>0.4</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" ref="F8:F13" si="0">D8*E8</f>
+        <f t="shared" ref="F8:F12" si="0">D8*E8</f>
         <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>17</v>
@@ -685,7 +676,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5">
         <v>30</v>
@@ -698,7 +689,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="5"/>
     </row>
@@ -710,7 +701,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
@@ -723,79 +714,56 @@
         <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="5">
-        <v>15</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.3</v>
-      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="D15" s="7">
-        <f>SUM(D8:D13)</f>
-        <v>90</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7">
-        <f>SUM(F8:F13)</f>
-        <v>32</v>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="D14" s="7">
+        <f>SUM(D8:D12)</f>
+        <v>75</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="7">
+        <f>SUM(F8:F12)</f>
+        <v>27.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>

--- a/01 Project Management/TechnischeRisiken.xlsx
+++ b/01 Project Management/TechnischeRisiken.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Risikotabelle" sheetId="1" r:id="rId1"/>
+    <sheet name="Historie" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Risikomanagement</t>
   </si>
@@ -94,9 +95,6 @@
     <t>PostgreSQL</t>
   </si>
   <si>
-    <t>R…</t>
-  </si>
-  <si>
     <t>Summe</t>
   </si>
   <si>
@@ -106,9 +104,6 @@
     <t>Das entwickeln von Android Apps ist für alle Teammitglieder neu. Höherer Zeitaufwand notwendig sich in die Technologie einzuarbeiten als erwartet.</t>
   </si>
   <si>
-    <t>Evaluation ist in Planung enthalten. Es werden so oder so externe Auskünfute/Empfehlungen eingeholt</t>
-  </si>
-  <si>
     <t>Die wahl des REST Frameworks steht zu Beginn des Projekts noch nicht fest. Die zwei Frameworks die zur Auswahl stehen sind noch allen Teammitgliedern unbekannt. Es muss noch eine Evaluation/Einarbeitung durchgeführt werden die mehr Zeit benötigt als geplant</t>
   </si>
   <si>
@@ -119,6 +114,75 @@
   </si>
   <si>
     <t>Hilfe bei Stefan Keller suchen.</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Aktueller stand</t>
+  </si>
+  <si>
+    <t>hat sich erübrigt</t>
+  </si>
+  <si>
+    <t>NEO4J</t>
+  </si>
+  <si>
+    <t>Die Datenbank wahl ist auf eine Graphorientierte Datenbank gefallen. Kein Teammitglied hat das Produkt bereits verwendet. Ein Risiko besteht darin, dass sehr viel Zeit für die Einarbeitung in dieses Produkt aufgewendet werden muss.</t>
+  </si>
+  <si>
+    <t>Bereits nach Evaluation wird Systematisch KnowHow aufgebaut (ist mittels Tickets geplant)</t>
+  </si>
+  <si>
+    <t>Hilfe suchen bei Studenten, der seine Semesterarbeit mit RESTlet gemacht hat.</t>
+  </si>
+  <si>
+    <t>Evaluation ist in Planung enthalten. Es werden so oder so externe Auskünfute/Empfehlungen eingeholt. Ebooks zum Thema RESTlet und REST allgemein wurden gekauft.</t>
+  </si>
+  <si>
+    <t>Alle Teammitglieder haben sich in die Technologie eingearbeitet</t>
+  </si>
+  <si>
+    <t>REST Basic Funktionalität ist in den Prototypen eingebaut</t>
+  </si>
+  <si>
+    <t>Schulung durch drittes Teammitglied</t>
+  </si>
+  <si>
+    <t>Alle Teammitglieder haben sich bereits in die Technologie eingearbeitet. Datenbank steht inkl. Testdaten</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Änderung</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>30.2.2012</t>
+  </si>
+  <si>
+    <t>Erstellung des Dokumentes</t>
+  </si>
+  <si>
+    <t>Jonas Furrer</t>
+  </si>
+  <si>
+    <t>Hinzufügen Neo4J Risikon, löschen Postgres</t>
+  </si>
+  <si>
+    <t>Christian Fässler</t>
+  </si>
+  <si>
+    <t>Erneutes Einstufen der Risiken</t>
+  </si>
+  <si>
+    <t>Ein Teammitglied hat sich bereits in die Technologie eingearbeitet</t>
   </si>
 </sst>
 </file>
@@ -128,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -158,13 +222,32 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,11 +259,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -209,6 +293,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -218,9 +305,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -520,163 +625,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK14"/>
+  <dimension ref="A1:AMK16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1"/>
     <col min="5" max="5" width="13.140625" style="1"/>
-    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" style="1"/>
     <col min="8" max="8" width="26.42578125" style="1"/>
-    <col min="9" max="1025" width="7.28515625" style="1"/>
+    <col min="9" max="9" width="23.140625" style="1" customWidth="1"/>
+    <col min="10" max="1025" width="7.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="3">
-        <f>SUM(F8:F13)</f>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <f>SUM(F10:F15)</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="I9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5">
-        <v>30</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" ref="F8:F12" si="0">D8*E8</f>
-        <v>12</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D10" s="5">
         <v>30</v>
@@ -685,85 +756,166 @@
         <v>0.4</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F10:F14" si="0">D10*E10</f>
         <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E11" s="6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5">
+        <v>30</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.3</v>
+      </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="14">
+        <v>10</v>
+      </c>
+      <c r="E13" s="15">
         <v>0</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="D14" s="7">
-        <f>SUM(D8:D12)</f>
-        <v>75</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7">
-        <f>SUM(F8:F12)</f>
-        <v>27.5</v>
+      <c r="F13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="D16" s="7">
+        <f>SUM(D10:D14)</f>
+        <v>90</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7">
+        <f>SUM(F10:F14)</f>
+        <v>25.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -773,4 +925,80 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>40992</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>41001</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>